--- a/upload.xlsx
+++ b/upload.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="give sample sheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>username</t>
   </si>
@@ -19,154 +19,391 @@
     <t>name</t>
   </si>
   <si>
-    <t>kmohaideenpitchai</t>
-  </si>
-  <si>
-    <t>Dr.K.Mohaideen Pitchai</t>
-  </si>
-  <si>
-    <t>rrajakumari</t>
-  </si>
-  <si>
-    <t>Dr.R.Rajakumari</t>
-  </si>
-  <si>
-    <t>sdheenathayalan</t>
-  </si>
-  <si>
-    <t>Dr.S.Dheenathayalan</t>
-  </si>
-  <si>
-    <t>kamsaveni</t>
-  </si>
-  <si>
-    <t>Ms.K.Amsaveni</t>
-  </si>
-  <si>
-    <t>skayathri</t>
-  </si>
-  <si>
-    <t>Ms.S.Kayathri</t>
-  </si>
-  <si>
-    <t>kvignesh</t>
-  </si>
-  <si>
-    <t>Mr.K.Vignesh</t>
-  </si>
-  <si>
-    <t>krajkumar</t>
-  </si>
-  <si>
-    <t>Mr.K.Rajkumar</t>
-  </si>
-  <si>
-    <t>jidachristy</t>
-  </si>
-  <si>
-    <t>Dr.J.Ida Christy</t>
-  </si>
-  <si>
-    <t>mgayathri</t>
-  </si>
-  <si>
-    <t>Ms.M.Gayathri</t>
-  </si>
-  <si>
-    <t>skalaiselvi</t>
-  </si>
-  <si>
-    <t>Dr.S.Kalaiselvi</t>
-  </si>
-  <si>
-    <t>mkanthimathi</t>
-  </si>
-  <si>
-    <t>Ms.M.Kanthimathi</t>
-  </si>
-  <si>
-    <t>trajeswari</t>
-  </si>
-  <si>
-    <t>Ms.T.Rajeswari</t>
-  </si>
-  <si>
-    <t>vgomathi</t>
-  </si>
-  <si>
-    <t>Dr.V.Gomathi</t>
-  </si>
-  <si>
-    <t>dvijayakumar</t>
-  </si>
-  <si>
-    <t>Mr.D.Vijayakumar</t>
-  </si>
-  <si>
-    <t>rnavedhaevanjalin</t>
-  </si>
-  <si>
-    <t>Ms.R.Navedha Evanjalin</t>
-  </si>
-  <si>
-    <t>alincy</t>
-  </si>
-  <si>
-    <t>Ms.A.Lincy</t>
-  </si>
-  <si>
-    <t>dabisha</t>
-  </si>
-  <si>
-    <t>Ms.D.Abisha</t>
-  </si>
-  <si>
-    <t>schidambaram</t>
-  </si>
-  <si>
-    <t>Dr.S.Chidambaram</t>
-  </si>
-  <si>
-    <t>gpavithra</t>
-  </si>
-  <si>
-    <t>Ms.G.Pavithra</t>
-  </si>
-  <si>
-    <t>prampriya</t>
-  </si>
-  <si>
-    <t>Ms.P.Rampriya</t>
-  </si>
-  <si>
-    <t>dthamaraiselvi</t>
-  </si>
-  <si>
-    <t>Ms.D.Thamarai Selvi</t>
-  </si>
-  <si>
-    <t>ssanthi</t>
-  </si>
-  <si>
-    <t>Ms.S.Santhi</t>
-  </si>
-  <si>
-    <t>rvazhanarulsanthiya</t>
-  </si>
-  <si>
-    <t>Ms.R.Vazhan Arul Santhiya</t>
-  </si>
-  <si>
-    <t>gdhivya</t>
-  </si>
-  <si>
-    <t>Ms.G.Dhivya</t>
-  </si>
-  <si>
-    <t>srajagopal</t>
-  </si>
-  <si>
-    <t>Dr.S.Rajagopal</t>
+    <t>SUBIKSHAN</t>
+  </si>
+  <si>
+    <t>AARABHI SHEN S A</t>
+  </si>
+  <si>
+    <t>AKASH K</t>
+  </si>
+  <si>
+    <t>ALLAN DANI M</t>
+  </si>
+  <si>
+    <t>ANUSUYADEVI N</t>
+  </si>
+  <si>
+    <t>AUDHIDYA SIBIN R</t>
+  </si>
+  <si>
+    <t>BHUVANESWARI S</t>
+  </si>
+  <si>
+    <t>CHARU KANNIGA M P</t>
+  </si>
+  <si>
+    <t>CHHARLATHA U N</t>
+  </si>
+  <si>
+    <t>DEEKSHA S</t>
+  </si>
+  <si>
+    <t>DHANVANTH S</t>
+  </si>
+  <si>
+    <t>DHARSHINI K</t>
+  </si>
+  <si>
+    <t>DHIVYA VARSHINI D</t>
+  </si>
+  <si>
+    <t>DIVYA N</t>
+  </si>
+  <si>
+    <t>DIVYADHARSHINI R V</t>
+  </si>
+  <si>
+    <t>GNANA JEYANTHI M</t>
+  </si>
+  <si>
+    <t>GOKUL KRISHNA K</t>
+  </si>
+  <si>
+    <t>HARINI SELVA KUMARI V</t>
+  </si>
+  <si>
+    <t>HARISH VEERAMANI K</t>
+  </si>
+  <si>
+    <t>IMMANUEL A</t>
+  </si>
+  <si>
+    <t>JERINA GNANA PUSHPA R</t>
+  </si>
+  <si>
+    <t>JEYA SARAVANAN R</t>
+  </si>
+  <si>
+    <t>KARPAGAVALLI V</t>
+  </si>
+  <si>
+    <t>KRISHNA PRASAD M</t>
+  </si>
+  <si>
+    <t>MAHA MANISHA M</t>
+  </si>
+  <si>
+    <t>MATHUJAA P M</t>
+  </si>
+  <si>
+    <t>MENAGA R K</t>
+  </si>
+  <si>
+    <t>MOHAMMED ASEEL M</t>
+  </si>
+  <si>
+    <t>MUTHU MANSHA S</t>
+  </si>
+  <si>
+    <t>MUTHUKUMARAN G S</t>
+  </si>
+  <si>
+    <t>NATARAJ M</t>
+  </si>
+  <si>
+    <t>PADMAPRIYA K</t>
+  </si>
+  <si>
+    <t>POOJA M</t>
+  </si>
+  <si>
+    <t>PRADEEP T</t>
+  </si>
+  <si>
+    <t>PREMA LALITHA B</t>
+  </si>
+  <si>
+    <t>ROHITH A</t>
+  </si>
+  <si>
+    <t>SACHIN SELVAM P</t>
+  </si>
+  <si>
+    <t>SANJEEV NARAYAN M</t>
+  </si>
+  <si>
+    <t>SHANMUGA PRIYA M</t>
+  </si>
+  <si>
+    <t>SURUTHIKA J</t>
+  </si>
+  <si>
+    <t>SWATHI R</t>
+  </si>
+  <si>
+    <t>ATHUL PALANICHAMY T</t>
+  </si>
+  <si>
+    <t>THULASI KRISHNAN S</t>
+  </si>
+  <si>
+    <t>VASANTH SANKAR M</t>
+  </si>
+  <si>
+    <t>ANANTHAJOTHI T</t>
+  </si>
+  <si>
+    <t>SHANMUGA PRIYA P</t>
+  </si>
+  <si>
+    <t>DURGA DEVI S</t>
+  </si>
+  <si>
+    <t>MONISHA J</t>
+  </si>
+  <si>
+    <t>SATHYA A</t>
+  </si>
+  <si>
+    <t>SNEKA R</t>
+  </si>
+  <si>
+    <t>JULIYANA INFANCIYA J A</t>
+  </si>
+  <si>
+    <t>DHIVYA S</t>
+  </si>
+  <si>
+    <t>JOEL A</t>
+  </si>
+  <si>
+    <t>SUGANTH EBI CHITHRESH U</t>
+  </si>
+  <si>
+    <t>MEENAKSHI H</t>
+  </si>
+  <si>
+    <t>VISHALYA DEVI M</t>
+  </si>
+  <si>
+    <t>ANTO RAPHAEL D</t>
+  </si>
+  <si>
+    <t>JOYCY TRYPHENA D</t>
+  </si>
+  <si>
+    <t>MOHAMED ABUBACKER SIDDIQ H</t>
+  </si>
+  <si>
+    <t>SARAVANAKUMAR B</t>
+  </si>
+  <si>
+    <t>GEETHA LAKSHMI K</t>
+  </si>
+  <si>
+    <t>RAM PRASATH M</t>
+  </si>
+  <si>
+    <t>HARITHA R</t>
+  </si>
+  <si>
+    <t>AATHI NARAYANAN S</t>
+  </si>
+  <si>
+    <t>ANITHA M</t>
+  </si>
+  <si>
+    <t>SHANMUGA NIVETHA S</t>
+  </si>
+  <si>
+    <t>PON KATHIR M</t>
+  </si>
+  <si>
+    <t>ARAVINTH RAJ R</t>
+  </si>
+  <si>
+    <t>RAM BALAKUMARAN B</t>
+  </si>
+  <si>
+    <t>RAMJI K S</t>
+  </si>
+  <si>
+    <t>ARUN KUMAR R</t>
+  </si>
+  <si>
+    <t>JOSEPHIN MARY A</t>
+  </si>
+  <si>
+    <t>MOHAMED HAJI MEERAN</t>
+  </si>
+  <si>
+    <t>PRAVEENKUMAR S</t>
+  </si>
+  <si>
+    <t>BALAKRISHNA T</t>
+  </si>
+  <si>
+    <t>PRINCY CHRISTINA D</t>
+  </si>
+  <si>
+    <t>MYDEEN HAAN N</t>
+  </si>
+  <si>
+    <t>ASWINI G</t>
+  </si>
+  <si>
+    <t>ILAKIYAA MUTHUMATHY L R</t>
+  </si>
+  <si>
+    <t>PRIYANKA S</t>
+  </si>
+  <si>
+    <t>AKSHAYA K</t>
+  </si>
+  <si>
+    <t>PATHMA KOWSIK PANDIYAN A</t>
+  </si>
+  <si>
+    <t>SHIBANI M</t>
+  </si>
+  <si>
+    <t>RAJAVARSHENI.A</t>
+  </si>
+  <si>
+    <t>PRIYADHARSHINI G</t>
+  </si>
+  <si>
+    <t>MUTHURAMALINGAM A</t>
+  </si>
+  <si>
+    <t>AJAY KUMAR K L</t>
+  </si>
+  <si>
+    <t>JAMUNA RANI C</t>
+  </si>
+  <si>
+    <t>JANANI R</t>
+  </si>
+  <si>
+    <t>MONISHA M</t>
+  </si>
+  <si>
+    <t>SHALVIN FELCIA A</t>
+  </si>
+  <si>
+    <t>SURYA S</t>
+  </si>
+  <si>
+    <t>FRANK GODWIN RAJ P</t>
+  </si>
+  <si>
+    <t>M SASISIVAPRAKASH</t>
+  </si>
+  <si>
+    <t>SATHISH B</t>
+  </si>
+  <si>
+    <t>DEEPAKKUMAR B</t>
+  </si>
+  <si>
+    <t>GANESH M</t>
+  </si>
+  <si>
+    <t>JAMES INFANT RACHNA R</t>
+  </si>
+  <si>
+    <t>V MUTHAMMAL</t>
+  </si>
+  <si>
+    <t>KISHORE V</t>
+  </si>
+  <si>
+    <t>SURESH GOPI V</t>
+  </si>
+  <si>
+    <t>ELAKKIYA K</t>
+  </si>
+  <si>
+    <t>I HARISHPANDIAN</t>
+  </si>
+  <si>
+    <t>M POOJA</t>
+  </si>
+  <si>
+    <t>SUBHA SREE A</t>
+  </si>
+  <si>
+    <t>AKALYA S</t>
+  </si>
+  <si>
+    <t>DINESH BABU S</t>
+  </si>
+  <si>
+    <t>HARINI M</t>
+  </si>
+  <si>
+    <t>HIMANI GUPTA</t>
+  </si>
+  <si>
+    <t>DHARANI S</t>
+  </si>
+  <si>
+    <t>KISHOR SAMEENA M</t>
+  </si>
+  <si>
+    <t>ABI R</t>
+  </si>
+  <si>
+    <t>VARUN ILAYA RAJ A</t>
+  </si>
+  <si>
+    <t>KARTHIKEYAN S</t>
+  </si>
+  <si>
+    <t>JAYA SHIVAANI K.P</t>
+  </si>
+  <si>
+    <t>ABHISHEK SRIVATSAN R M</t>
+  </si>
+  <si>
+    <t>RAKESH K</t>
+  </si>
+  <si>
+    <t>APSHARA S</t>
+  </si>
+  <si>
+    <t>BALA SUBRAMANIAN G</t>
+  </si>
+  <si>
+    <t>SRINIVASAN</t>
+  </si>
+  <si>
+    <t>NITHYASREE V S</t>
+  </si>
+  <si>
+    <t>SUBASH MUTHU B</t>
+  </si>
+  <si>
+    <t>RAVI ARUN A</t>
+  </si>
+  <si>
+    <t>SUBASH CHANDRA BOSE K</t>
+  </si>
+  <si>
+    <t>ALWIN IMMANUEL J</t>
+  </si>
+  <si>
+    <t>HARI PRASATH V</t>
+  </si>
+  <si>
+    <t>RAMESH.G</t>
+  </si>
+  <si>
+    <t>MUNIYAMMAL</t>
+  </si>
+  <si>
+    <t>VENKATA SUBRAMANI</t>
   </si>
 </sst>
 </file>
@@ -181,9 +418,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,7 +442,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,8 +660,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="2" width="20.63"/>
+    <col customWidth="1" min="1" max="1" width="8.38"/>
+    <col customWidth="1" min="2" max="2" width="28.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -436,212 +673,1112 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>2212110.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2312001.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2312002.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>2312003.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="6">
+      <c r="A6" s="1">
+        <v>2312005.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>2312006.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="8">
+      <c r="A8" s="1">
+        <v>2312007.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>2312008.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="10">
+      <c r="A10" s="1">
+        <v>2312009.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>2312010.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    <row r="12">
+      <c r="A12" s="1">
+        <v>2312011.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>2312012.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+    <row r="14">
+      <c r="A14" s="1">
+        <v>2312013.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>2312014.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+    <row r="16">
+      <c r="A16" s="1">
+        <v>2312015.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>2312016.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+    <row r="18">
+      <c r="A18" s="1">
+        <v>2312017.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>2312018.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+    <row r="20">
+      <c r="A20" s="1">
+        <v>2312019.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>2312020.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+    <row r="22">
+      <c r="A22" s="1">
+        <v>2312021.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>2312022.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+    <row r="24">
+      <c r="A24" s="1">
+        <v>2312023.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>2312024.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+    <row r="26">
+      <c r="A26" s="1">
+        <v>2312025.0</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>2312026.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+    <row r="28">
+      <c r="A28" s="1">
+        <v>2312027.0</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>2312028.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+    <row r="30">
+      <c r="A30" s="1">
+        <v>2312029.0</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>2312030.0</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+    <row r="32">
+      <c r="A32" s="1">
+        <v>2312031.0</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>2312032.0</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+    <row r="34">
+      <c r="A34" s="1">
+        <v>2312033.0</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>2312034.0</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+    <row r="36">
+      <c r="A36" s="1">
+        <v>2312035.0</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>2312036.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+    <row r="38">
+      <c r="A38" s="1">
+        <v>2312037.0</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>2312038.0</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+    <row r="40">
+      <c r="A40" s="1">
+        <v>2312039.0</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>2312040.0</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+    <row r="42">
+      <c r="A42" s="1">
+        <v>2312041.0</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>2312042.0</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+    <row r="44">
+      <c r="A44" s="1">
+        <v>2312043.0</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>2312044.0</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+    <row r="46">
+      <c r="A46" s="1">
+        <v>2312045.0</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>2312046.0</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+    <row r="48">
+      <c r="A48" s="1">
+        <v>2312047.0</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>2312048.0</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+    <row r="50">
+      <c r="A50" s="1">
+        <v>2312049.0</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>2312050.0</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>2312051.0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>2312052.0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>2312053.0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>2312054.0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>2312055.0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>2312056.0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>2312057.0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>2312058.0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>2312060.0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>2312061.0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>2312062.0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>2312063.0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>2312064.0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>2312065.0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>2312066.0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>2312067.0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>2312069.0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>2312070.0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>2312071.0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>2312072.0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>2312073.0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>2312075.0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>2312076.0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>2312077.0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>2312078.0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>2312079.0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>2312080.0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>2312081.0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>2312082.0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>2312084.0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>2312085.0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>2312086.0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>2312087.0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>2312088.0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>2312089.0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>2312090.0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>2312091.0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>2312092.0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>2312093.0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>2312094.0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>2312095.0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>2312096.0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>2312097.0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>2312098.0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>2312099.0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>2312100.0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>2312101.0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>2312102.0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>2312103.0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>2312104.0</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>2312105.0</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>2312106.0</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>2312107.0</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>2312108.0</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>2312109.0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>2312111.0</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>2312112.0</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>2312113.0</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>2312114.0</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>2312116.0</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>2312118.0</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>2312119.0</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>2312120.0</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>2312121.0</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>2312122.0</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>2312123.0</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>2312124.0</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>2312125.0</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>2312126.0</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>2312127.0</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1">
+        <v>2312128.0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1">
+        <v>2312401.0</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1">
+        <v>2312402.0</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
+        <v>2312403.0</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>2312404.0</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1">
+        <v>2312405.0</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1">
+        <v>2312406.0</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1">
+        <v>2312407.0</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1">
+        <v>2312408.0</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
